--- a/excel-data.xlsx
+++ b/excel-data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>Line名</t>
   </si>
@@ -1187,6 +1187,9 @@
   </si>
   <si>
     <t>₊˚̶ᴅ̶ᴇ̶s̶ᴛ̶ɪ̶ɴ̶ʏ̶₰</t>
+  </si>
+  <si>
+    <t>₊˚Zoᴇყ⸝⸝♡</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1312,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1586,17 +1589,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1624,10 +1627,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1875,12 +1878,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2167,7 +2170,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2195,10 +2198,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -5271,14 +5274,22 @@
       </c>
     </row>
     <row r="146" ht="20.1" customHeight="1">
-      <c r="A146" s="26"/>
-      <c r="B146" s="22"/>
+      <c r="A146" t="s" s="3">
+        <v>192</v>
+      </c>
+      <c r="B146" t="s" s="4">
+        <v>301</v>
+      </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
+      <c r="E146" t="s" s="5">
+        <v>14</v>
+      </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
-      <c r="H146" s="22"/>
+      <c r="H146" t="s" s="7">
+        <v>12</v>
+      </c>
     </row>
     <row r="147" ht="20.1" customHeight="1">
       <c r="A147" s="26"/>

--- a/excel-data.xlsx
+++ b/excel-data.xlsx
@@ -767,6 +767,9 @@
     <t>柔</t>
   </si>
   <si>
+    <t>₊˚Zoᴇყ⸝⸝♡</t>
+  </si>
+  <si>
     <t>Syun</t>
   </si>
   <si>
@@ -1187,9 +1190,6 @@
   </si>
   <si>
     <t>₊˚̶ᴅ̶ᴇ̶s̶ᴛ̶ɪ̶ɴ̶ʏ̶₰</t>
-  </si>
-  <si>
-    <t>₊˚Zoᴇყ⸝⸝♡</t>
   </si>
 </sst>
 </file>
@@ -1354,9 +1354,6 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1368,6 +1365,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4179,7 +4179,9 @@
       <c r="A90" t="s" s="3">
         <v>192</v>
       </c>
-      <c r="B90" s="22"/>
+      <c r="B90" t="s" s="4">
+        <v>193</v>
+      </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" t="s" s="5">
@@ -4193,10 +4195,10 @@
     </row>
     <row r="91" ht="20.1" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" t="s" s="5">
@@ -4215,10 +4217,10 @@
     </row>
     <row r="92" ht="20.1" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B92" t="s" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s" s="5">
         <v>10</v>
@@ -4237,10 +4239,10 @@
     </row>
     <row r="93" ht="20.1" customHeight="1">
       <c r="A93" t="s" s="15">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -4255,10 +4257,10 @@
     </row>
     <row r="94" ht="20.1" customHeight="1">
       <c r="A94" t="s" s="3">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" t="s" s="5">
@@ -4277,10 +4279,10 @@
     </row>
     <row r="95" ht="20.1" customHeight="1">
       <c r="A95" t="s" s="3">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B95" t="s" s="4">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s" s="5">
         <v>10</v>
@@ -4295,10 +4297,10 @@
     </row>
     <row r="96" ht="20.1" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B96" t="s" s="4">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s" s="5">
         <v>10</v>
@@ -4317,10 +4319,10 @@
     </row>
     <row r="97" ht="20.1" customHeight="1">
       <c r="A97" t="s" s="3">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B97" t="s" s="4">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -4333,10 +4335,10 @@
     </row>
     <row r="98" ht="20.1" customHeight="1">
       <c r="A98" t="s" s="3">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B98" t="s" s="4">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -4353,10 +4355,10 @@
     </row>
     <row r="99" ht="20.1" customHeight="1">
       <c r="A99" t="s" s="15">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B99" t="s" s="10">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -4373,10 +4375,10 @@
     </row>
     <row r="100" ht="20.1" customHeight="1">
       <c r="A100" t="s" s="3">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B100" t="s" s="4">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s" s="5">
         <v>10</v>
@@ -4399,9 +4401,9 @@
     </row>
     <row r="101" ht="20.1" customHeight="1">
       <c r="A101" t="s" s="3">
-        <v>213</v>
-      </c>
-      <c r="B101" s="23">
+        <v>214</v>
+      </c>
+      <c r="B101" s="22">
         <v>123789</v>
       </c>
       <c r="C101" t="s" s="5">
@@ -4417,10 +4419,10 @@
     </row>
     <row r="102" ht="20.1" customHeight="1">
       <c r="A102" t="s" s="3">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B102" t="s" s="4">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C102" t="s" s="5">
         <v>10</v>
@@ -4443,10 +4445,10 @@
     </row>
     <row r="103" ht="20.1" customHeight="1">
       <c r="A103" t="s" s="3">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B103" t="s" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -4461,10 +4463,10 @@
     </row>
     <row r="104" ht="20.1" customHeight="1">
       <c r="A104" t="s" s="3">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B104" t="s" s="4">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -4479,10 +4481,10 @@
     </row>
     <row r="105" ht="20.1" customHeight="1">
       <c r="A105" t="s" s="3">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C105" t="s" s="5">
         <v>10</v>
@@ -4503,10 +4505,10 @@
     </row>
     <row r="106" ht="20.1" customHeight="1">
       <c r="A106" t="s" s="3">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B106" t="s" s="4">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C106" t="s" s="5">
         <v>10</v>
@@ -4529,10 +4531,10 @@
     </row>
     <row r="107" ht="20.1" customHeight="1">
       <c r="A107" t="s" s="3">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B107" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -4549,10 +4551,10 @@
     </row>
     <row r="108" ht="20.1" customHeight="1">
       <c r="A108" t="s" s="3">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B108" t="s" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C108" t="s" s="5">
         <v>10</v>
@@ -4575,10 +4577,10 @@
     </row>
     <row r="109" ht="20.1" customHeight="1">
       <c r="A109" t="s" s="3">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B109" t="s" s="4">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C109" t="s" s="5">
         <v>10</v>
@@ -4604,7 +4606,7 @@
         <v>127</v>
       </c>
       <c r="B110" t="s" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" t="s" s="5">
@@ -4621,10 +4623,10 @@
     </row>
     <row r="111" ht="20.1" customHeight="1">
       <c r="A111" t="s" s="3">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B111" t="s" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C111" t="s" s="5">
         <v>10</v>
@@ -4639,10 +4641,10 @@
     </row>
     <row r="112" ht="20.1" customHeight="1">
       <c r="A112" t="s" s="3">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B112" t="s" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -4655,10 +4657,10 @@
     </row>
     <row r="113" ht="20.1" customHeight="1">
       <c r="A113" t="s" s="3">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B113" t="s" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" t="s" s="5">
@@ -4673,10 +4675,10 @@
     </row>
     <row r="114" ht="20.1" customHeight="1">
       <c r="A114" t="s" s="3">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B114" t="s" s="4">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -4693,10 +4695,10 @@
     </row>
     <row r="115" ht="20.1" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B115" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" t="s" s="5">
@@ -4713,10 +4715,10 @@
     </row>
     <row r="116" ht="20.1" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B116" t="s" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -4733,10 +4735,10 @@
     </row>
     <row r="117" ht="20.1" customHeight="1">
       <c r="A117" t="s" s="3">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B117" t="s" s="4">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" t="s" s="5">
@@ -4751,10 +4753,10 @@
     </row>
     <row r="118" ht="20.1" customHeight="1">
       <c r="A118" t="s" s="3">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B118" t="s" s="4">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -4767,10 +4769,10 @@
     </row>
     <row r="119" ht="20.1" customHeight="1">
       <c r="A119" t="s" s="3">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B119" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4785,10 +4787,10 @@
     </row>
     <row r="120" ht="20.1" customHeight="1">
       <c r="A120" t="s" s="3">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B120" t="s" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -4801,10 +4803,10 @@
     </row>
     <row r="121" ht="20.1" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B121" t="s" s="4">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -4819,10 +4821,10 @@
     </row>
     <row r="122" ht="20.1" customHeight="1">
       <c r="A122" t="s" s="3">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B122" t="s" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -4835,10 +4837,10 @@
     </row>
     <row r="123" ht="20.1" customHeight="1">
       <c r="A123" t="s" s="3">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B123" t="s" s="4">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -4855,10 +4857,10 @@
     </row>
     <row r="124" ht="20.1" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B124" t="s" s="4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -4873,10 +4875,10 @@
     </row>
     <row r="125" ht="20.1" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B125" t="s" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -4891,10 +4893,10 @@
     </row>
     <row r="126" ht="20.1" customHeight="1">
       <c r="A126" t="s" s="3">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B126" t="s" s="4">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -4910,7 +4912,7 @@
         <v>17</v>
       </c>
       <c r="B127" t="s" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" t="s" s="5">
@@ -4929,10 +4931,10 @@
     </row>
     <row r="128" ht="20.1" customHeight="1">
       <c r="A128" t="s" s="3">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B128" t="s" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C128" t="s" s="5">
         <v>10</v>
@@ -4947,10 +4949,10 @@
     </row>
     <row r="129" ht="20.1" customHeight="1">
       <c r="A129" t="s" s="3">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B129" t="s" s="4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C129" t="s" s="5">
         <v>10</v>
@@ -4973,10 +4975,10 @@
     </row>
     <row r="130" ht="20.1" customHeight="1">
       <c r="A130" t="s" s="3">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B130" t="s" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C130" t="s" s="5">
         <v>10</v>
@@ -4999,10 +5001,10 @@
     </row>
     <row r="131" ht="20.1" customHeight="1">
       <c r="A131" t="s" s="3">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B131" t="s" s="4">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -5015,10 +5017,10 @@
     </row>
     <row r="132" ht="20.1" customHeight="1">
       <c r="A132" t="s" s="3">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B132" t="s" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" t="s" s="5">
@@ -5033,10 +5035,10 @@
     </row>
     <row r="133" ht="20.1" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B133" t="s" s="4">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C133" t="s" s="5">
         <v>10</v>
@@ -5051,10 +5053,10 @@
     </row>
     <row r="134" ht="20.1" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B134" t="s" s="4">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -5066,11 +5068,11 @@
       </c>
     </row>
     <row r="135" ht="20.1" customHeight="1">
-      <c r="A135" t="s" s="24">
-        <v>278</v>
-      </c>
-      <c r="B135" t="s" s="25">
+      <c r="A135" t="s" s="23">
         <v>279</v>
+      </c>
+      <c r="B135" t="s" s="24">
+        <v>280</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -5082,15 +5084,15 @@
         <v>18</v>
       </c>
       <c r="H135" t="s" s="10">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" ht="20.1" customHeight="1">
       <c r="A136" t="s" s="3">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B136" t="s" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" t="s" s="5">
@@ -5107,10 +5109,10 @@
     </row>
     <row r="137" ht="20.1" customHeight="1">
       <c r="A137" t="s" s="3">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B137" t="s" s="4">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C137" t="s" s="5">
         <v>10</v>
@@ -5127,10 +5129,10 @@
     </row>
     <row r="138" ht="20.1" customHeight="1">
       <c r="A138" t="s" s="3">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B138" t="s" s="4">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C138" t="s" s="5">
         <v>10</v>
@@ -5153,10 +5155,10 @@
     </row>
     <row r="139" ht="20.1" customHeight="1">
       <c r="A139" t="s" s="3">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B139" t="s" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -5171,10 +5173,10 @@
     </row>
     <row r="140" ht="20.1" customHeight="1">
       <c r="A140" t="s" s="3">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B140" t="s" s="4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -5187,10 +5189,10 @@
     </row>
     <row r="141" ht="20.1" customHeight="1">
       <c r="A141" t="s" s="3">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B141" t="s" s="4">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -5207,10 +5209,10 @@
     </row>
     <row r="142" ht="20.1" customHeight="1">
       <c r="A142" t="s" s="3">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B142" t="s" s="4">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -5223,10 +5225,10 @@
     </row>
     <row r="143" ht="20.1" customHeight="1">
       <c r="A143" t="s" s="3">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B143" t="s" s="4">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C143" t="s" s="5">
         <v>10</v>
@@ -5241,10 +5243,10 @@
     </row>
     <row r="144" ht="20.1" customHeight="1">
       <c r="A144" t="s" s="3">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B144" t="s" s="4">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -5257,10 +5259,10 @@
     </row>
     <row r="145" ht="20.1" customHeight="1">
       <c r="A145" t="s" s="3">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B145" t="s" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" t="s" s="5">
@@ -5274,72 +5276,64 @@
       </c>
     </row>
     <row r="146" ht="20.1" customHeight="1">
-      <c r="A146" t="s" s="3">
-        <v>192</v>
-      </c>
-      <c r="B146" t="s" s="4">
-        <v>301</v>
-      </c>
+      <c r="A146" s="25"/>
+      <c r="B146" s="26"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
-      <c r="E146" t="s" s="5">
-        <v>14</v>
-      </c>
+      <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
-      <c r="H146" t="s" s="7">
-        <v>12</v>
-      </c>
+      <c r="H146" s="26"/>
     </row>
     <row r="147" ht="20.1" customHeight="1">
-      <c r="A147" s="26"/>
-      <c r="B147" s="22"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="26"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="22"/>
+      <c r="H147" s="26"/>
     </row>
     <row r="148" ht="20.1" customHeight="1">
-      <c r="A148" s="26"/>
-      <c r="B148" s="22"/>
+      <c r="A148" s="25"/>
+      <c r="B148" s="26"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="22"/>
+      <c r="H148" s="26"/>
     </row>
     <row r="149" ht="20.1" customHeight="1">
-      <c r="A149" s="26"/>
-      <c r="B149" s="22"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="26"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="22"/>
+      <c r="H149" s="26"/>
     </row>
     <row r="150" ht="20.1" customHeight="1">
-      <c r="A150" s="26"/>
-      <c r="B150" s="22"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="26"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="22"/>
+      <c r="H150" s="26"/>
     </row>
     <row r="151" ht="20.1" customHeight="1">
-      <c r="A151" s="26"/>
-      <c r="B151" s="22"/>
+      <c r="A151" s="25"/>
+      <c r="B151" s="26"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="22"/>
+      <c r="H151" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel-data.xlsx
+++ b/excel-data.xlsx
@@ -5,13 +5,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="0601更新" sheetId="1" r:id="rId4"/>
+    <sheet name="0523更新" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t>Line名</t>
   </si>
@@ -34,6 +34,9 @@
     <t>擅輔</t>
   </si>
   <si>
+    <t>段位</t>
+  </si>
+  <si>
     <t>乙瑆</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>野</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>GL07LQ</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>͜҉ᴵᴳ:I̶M̶7̶7̶_o̶z̶♡ིྀ⸝*</t>
   </si>
   <si>
+    <t>AA2</t>
+  </si>
+  <si>
     <t>晴</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>˖Łуииииﻬ·ִֶָ</t>
   </si>
   <si>
+    <t>AA3</t>
+  </si>
+  <si>
     <t>熊熊🐼</t>
   </si>
   <si>
@@ -301,6 +313,9 @@
     <t>ʟᴜʟᴜ、•ᴗ•</t>
   </si>
   <si>
+    <t>AA4</t>
+  </si>
+  <si>
     <t>達</t>
   </si>
   <si>
@@ -475,6 +490,9 @@
     <t>勳王爺</t>
   </si>
   <si>
+    <t>AA1*</t>
+  </si>
+  <si>
     <t>Chen</t>
   </si>
   <si>
@@ -841,6 +859,9 @@
     <t>初為霓裳後六么</t>
   </si>
   <si>
+    <t>AA5</t>
+  </si>
+  <si>
     <t>林肯銳</t>
   </si>
   <si>
@@ -898,6 +919,9 @@
     <t>韓博韜</t>
   </si>
   <si>
+    <t>我佛慈悲...</t>
+  </si>
+  <si>
     <t>黃</t>
   </si>
   <si>
@@ -908,6 +932,9 @@
   </si>
   <si>
     <t>殆尽….</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
 </sst>
 </file>
@@ -945,7 +972,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -955,11 +982,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,8 +999,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -998,22 +1031,22 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -1022,49 +1055,49 @@
         <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -1073,15 +1106,45 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="medium">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1092,7 +1155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,59 +1165,83 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,6 +1260,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffa6a6a6"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ffb7b7b7"/>
@@ -1375,17 +1463,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1413,10 +1501,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1664,12 +1752,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1956,7 +2044,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1984,10 +2072,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2238,7 +2326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2247,7 +2335,8 @@
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.3516" style="1" customWidth="1"/>
     <col min="3" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.35156" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -2272,2422 +2361,2867 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="20.1" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" t="s" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" ht="20.1" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" ht="20.1" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" ht="20.1" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="20.1" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="8"/>
+      <c r="H8" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" ht="20.1" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" ht="20.1" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" ht="20.1" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G12" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>7</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" t="s" s="11">
-        <v>16</v>
+      <c r="G14" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" t="s" s="11">
-        <v>16</v>
+      <c r="G15" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s" s="7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G16" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" ht="20.1" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="7">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G17" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" ht="20.1" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s" s="7">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="8"/>
+      <c r="H18" t="s" s="10">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" ht="20.1" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1">
       <c r="A20" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" t="s" s="10">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" ht="20.1" customHeight="1">
       <c r="A21" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G21" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" ht="20.1" customHeight="1">
-      <c r="A22" t="s" s="13">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s" s="13">
-        <v>51</v>
+      <c r="A22" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s" s="12">
+        <v>55</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="8"/>
+      <c r="H22" t="s" s="13">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" ht="20.1" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s" s="14">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="8"/>
+      <c r="H24" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" ht="20.1" customHeight="1">
       <c r="A25" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" t="s" s="10">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" ht="20.1" customHeight="1">
       <c r="A26" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G26" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" ht="20.1" customHeight="1">
       <c r="A27" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="8"/>
+      <c r="H27" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" ht="20.1" customHeight="1">
       <c r="A28" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="8"/>
+      <c r="H28" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" ht="20.1" customHeight="1">
       <c r="A29" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="8"/>
+      <c r="H29" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" ht="20.1" customHeight="1">
       <c r="A30" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="8"/>
+      <c r="H30" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" ht="20.1" customHeight="1">
       <c r="A31" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="8"/>
+      <c r="H31" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" ht="20.1" customHeight="1">
       <c r="A32" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" t="s" s="11">
-        <v>16</v>
+      <c r="G32" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="20.1" customHeight="1">
       <c r="A33" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G33" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" ht="20.1" customHeight="1">
       <c r="A34" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="8"/>
+      <c r="H34" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" ht="20.1" customHeight="1">
       <c r="A35" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="8"/>
+      <c r="H35" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" ht="20.1" customHeight="1">
       <c r="A36" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="8"/>
+      <c r="H36" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" ht="20.1" customHeight="1">
       <c r="A37" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="8"/>
+      <c r="H37" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" ht="20.1" customHeight="1">
       <c r="A38" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="8"/>
+      <c r="H38" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" ht="20.1" customHeight="1">
       <c r="A39" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" t="s" s="11">
-        <v>16</v>
+      <c r="G39" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="20.1" customHeight="1">
       <c r="A40" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="8"/>
+      <c r="H40" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" ht="20.1" customHeight="1">
       <c r="A41" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" t="s" s="11">
-        <v>16</v>
+      <c r="G41" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="20.1" customHeight="1">
       <c r="A42" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G42" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="43" ht="20.1" customHeight="1">
       <c r="A43" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G43" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="44" ht="20.1" customHeight="1">
       <c r="A44" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" t="s" s="11">
-        <v>16</v>
+      <c r="G44" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="45" ht="20.1" customHeight="1">
       <c r="A45" t="s" s="7">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s" s="7">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="8"/>
+      <c r="H45" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="46" ht="20.1" customHeight="1">
       <c r="A46" t="s" s="7">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s" s="7">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" t="s" s="11">
-        <v>16</v>
+      <c r="G46" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="20.1" customHeight="1">
       <c r="A47" t="s" s="7">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s" s="7">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" t="s" s="11">
-        <v>16</v>
+      <c r="G47" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="20.1" customHeight="1">
       <c r="A48" t="s" s="7">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s" s="7">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="8"/>
+      <c r="H48" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" ht="20.1" customHeight="1">
       <c r="A49" t="s" s="7">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="8"/>
+      <c r="H49" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" ht="20.1" customHeight="1">
       <c r="A50" t="s" s="7">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s" s="7">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="8"/>
+      <c r="H50" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="51" ht="20.1" customHeight="1">
       <c r="A51" t="s" s="7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G51" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" ht="20.1" customHeight="1">
       <c r="A52" t="s" s="7">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="8"/>
+      <c r="H52" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" ht="20.1" customHeight="1">
       <c r="A53" t="s" s="7">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s" s="7">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G53" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="54" ht="20.1" customHeight="1">
       <c r="A54" t="s" s="7">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s" s="7">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G54" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" ht="20.1" customHeight="1">
       <c r="A55" t="s" s="7">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="8"/>
+      <c r="H55" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="56" ht="20.1" customHeight="1">
       <c r="A56" t="s" s="7">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="20.1" customHeight="1">
       <c r="A57" t="s" s="7">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s" s="7">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="8"/>
+      <c r="H57" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="58" ht="20.1" customHeight="1">
       <c r="A58" t="s" s="7">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G58" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="H58" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" ht="20.1" customHeight="1">
       <c r="A59" t="s" s="7">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s" s="7">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="20.1" customHeight="1">
       <c r="A60" t="s" s="7">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" s="8"/>
-      <c r="G60" t="s" s="11">
-        <v>16</v>
+      <c r="G60" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="20.1" customHeight="1">
       <c r="A61" t="s" s="7">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="8"/>
+      <c r="H61" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="62" ht="20.1" customHeight="1">
       <c r="A62" t="s" s="7">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F62" s="8"/>
-      <c r="G62" t="s" s="11">
-        <v>16</v>
+      <c r="G62" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H62" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="20.1" customHeight="1">
       <c r="A63" t="s" s="7">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s" s="7">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="8"/>
+      <c r="H63" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="64" ht="20.1" customHeight="1">
       <c r="A64" t="s" s="7">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s" s="7">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="10"/>
+      <c r="G64" s="8"/>
+      <c r="H64" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" ht="20.1" customHeight="1">
       <c r="A65" t="s" s="7">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G65" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" ht="20.1" customHeight="1">
       <c r="A66" t="s" s="7">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="10"/>
+      <c r="G66" s="8"/>
+      <c r="H66" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" ht="20.1" customHeight="1">
       <c r="A67" t="s" s="7">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="10"/>
+      <c r="G67" s="8"/>
+      <c r="H67" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="68" ht="20.1" customHeight="1">
       <c r="A68" t="s" s="7">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F68" s="8"/>
-      <c r="G68" t="s" s="11">
-        <v>16</v>
+      <c r="G68" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="20.1" customHeight="1">
       <c r="A69" t="s" s="7">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="10"/>
+      <c r="G69" s="8"/>
+      <c r="H69" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" ht="20.1" customHeight="1">
       <c r="A70" t="s" s="7">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F70" s="8"/>
-      <c r="G70" t="s" s="11">
-        <v>16</v>
+      <c r="G70" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H70" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="20.1" customHeight="1">
       <c r="A71" t="s" s="7">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H71" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="20.1" customHeight="1">
       <c r="A72" t="s" s="7">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="10"/>
+      <c r="G72" s="8"/>
+      <c r="H72" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="73" ht="20.1" customHeight="1">
       <c r="A73" t="s" s="7">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73" s="8"/>
-      <c r="G73" s="10"/>
+      <c r="G73" s="8"/>
+      <c r="H73" t="s" s="10">
+        <v>159</v>
+      </c>
     </row>
     <row r="74" ht="20.1" customHeight="1">
       <c r="A74" t="s" s="7">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H74" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="20.1" customHeight="1">
       <c r="A75" t="s" s="7">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B75" t="s" s="7">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F75" s="8"/>
-      <c r="G75" t="s" s="11">
-        <v>16</v>
+      <c r="G75" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H75" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="20.1" customHeight="1">
       <c r="A76" t="s" s="7">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F76" s="8"/>
-      <c r="G76" t="s" s="11">
-        <v>16</v>
+      <c r="G76" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H76" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="20.1" customHeight="1">
       <c r="A77" t="s" s="7">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="10"/>
+      <c r="G77" s="8"/>
+      <c r="H77" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" ht="20.1" customHeight="1">
       <c r="A78" t="s" s="7">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B78" t="s" s="7">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F78" s="8"/>
-      <c r="G78" t="s" s="11">
-        <v>16</v>
+      <c r="G78" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H78" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="20.1" customHeight="1">
       <c r="A79" t="s" s="7">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s" s="7">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="10"/>
+      <c r="G79" s="8"/>
+      <c r="H79" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" ht="20.1" customHeight="1">
       <c r="A80" t="s" s="7">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s" s="7">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="10"/>
+      <c r="G80" s="8"/>
+      <c r="H80" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="81" ht="20.1" customHeight="1">
       <c r="A81" t="s" s="7">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G81" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G81" s="8"/>
+      <c r="H81" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="82" ht="20.1" customHeight="1">
       <c r="A82" t="s" s="7">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
-      <c r="G82" s="10"/>
+      <c r="G82" s="8"/>
+      <c r="H82" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" ht="20.1" customHeight="1">
       <c r="A83" t="s" s="7">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
-      <c r="G83" t="s" s="11">
-        <v>16</v>
+      <c r="G83" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="20.1" customHeight="1">
       <c r="A84" t="s" s="7">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
-      <c r="G84" s="10"/>
+      <c r="G84" s="8"/>
+      <c r="H84" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" ht="20.1" customHeight="1">
       <c r="A85" t="s" s="7">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s" s="7">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F85" s="8"/>
-      <c r="G85" s="10"/>
+      <c r="G85" s="8"/>
+      <c r="H85" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="86" ht="20.1" customHeight="1">
       <c r="A86" t="s" s="7">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B86" t="s" s="7">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G86" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G86" s="8"/>
+      <c r="H86" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" ht="20.1" customHeight="1">
       <c r="A87" t="s" s="7">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="10"/>
+      <c r="G87" s="8"/>
+      <c r="H87" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" ht="20.1" customHeight="1">
       <c r="A88" t="s" s="7">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F88" s="8"/>
-      <c r="G88" t="s" s="11">
-        <v>16</v>
+      <c r="G88" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="20.1" customHeight="1">
       <c r="A89" t="s" s="7">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s" s="7">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F89" s="8"/>
-      <c r="G89" t="s" s="11">
-        <v>16</v>
+      <c r="G89" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="90" ht="20.1" customHeight="1">
       <c r="A90" t="s" s="7">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B90" t="s" s="7">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F90" s="8"/>
-      <c r="G90" s="10"/>
+      <c r="G90" s="8"/>
+      <c r="H90" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="91" ht="20.1" customHeight="1">
       <c r="A91" t="s" s="7">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s" s="7">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F91" s="8"/>
-      <c r="G91" t="s" s="11">
-        <v>16</v>
+      <c r="G91" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="20.1" customHeight="1">
       <c r="A92" t="s" s="7">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B92" t="s" s="7">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F92" s="8"/>
-      <c r="G92" t="s" s="11">
-        <v>16</v>
+      <c r="G92" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="20.1" customHeight="1">
       <c r="A93" t="s" s="7">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s" s="7">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G93" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G93" s="8"/>
+      <c r="H93" t="s" s="10">
+        <v>38</v>
+      </c>
     </row>
     <row r="94" ht="20.1" customHeight="1">
       <c r="A94" t="s" s="7">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s" s="7">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F94" s="8"/>
-      <c r="G94" t="s" s="11">
-        <v>16</v>
+      <c r="G94" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="20.1" customHeight="1">
       <c r="A95" t="s" s="7">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
-      <c r="G95" s="10"/>
+      <c r="G95" s="8"/>
+      <c r="H95" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="96" ht="20.1" customHeight="1">
       <c r="A96" t="s" s="7">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B96" t="s" s="7">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G96" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G96" s="8"/>
+      <c r="H96" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="97" ht="20.1" customHeight="1">
       <c r="A97" t="s" s="7">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B97" t="s" s="7">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
-      <c r="G97" s="10"/>
+      <c r="G97" s="8"/>
+      <c r="H97" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="98" ht="20.1" customHeight="1">
       <c r="A98" t="s" s="7">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B98" t="s" s="7">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="10"/>
+      <c r="G98" s="8"/>
+      <c r="H98" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="99" ht="20.1" customHeight="1">
       <c r="A99" t="s" s="7">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B99" t="s" s="7">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F99" s="8"/>
-      <c r="G99" t="s" s="11">
-        <v>16</v>
+      <c r="G99" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="20.1" customHeight="1">
       <c r="A100" t="s" s="7">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B100" t="s" s="7">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H100" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="20.1" customHeight="1">
       <c r="A101" t="s" s="7">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B101" t="s" s="15">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
-      <c r="G101" s="10"/>
+      <c r="G101" s="8"/>
+      <c r="H101" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" ht="20.1" customHeight="1">
       <c r="A102" t="s" s="7">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B102" t="s" s="7">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C102" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G102" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H102" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="20.1" customHeight="1">
       <c r="A103" t="s" s="7">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B103" t="s" s="7">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G103" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G103" s="8"/>
+      <c r="H103" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="104" ht="20.1" customHeight="1">
       <c r="A104" t="s" s="7">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B104" t="s" s="7">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
-      <c r="G104" t="s" s="11">
-        <v>16</v>
+      <c r="G104" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H104" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="20.1" customHeight="1">
       <c r="A105" t="s" s="7">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B105" t="s" s="7">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F105" s="8"/>
-      <c r="G105" s="10"/>
+      <c r="G105" s="8"/>
+      <c r="H105" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="106" ht="20.1" customHeight="1">
       <c r="A106" t="s" s="7">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B106" t="s" s="7">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G106" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G106" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H106" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="20.1" customHeight="1">
       <c r="A107" t="s" s="7">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B107" t="s" s="7">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F107" s="8"/>
-      <c r="G107" t="s" s="11">
-        <v>16</v>
+      <c r="G107" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H107" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="20.1" customHeight="1">
       <c r="A108" t="s" s="7">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B108" t="s" s="7">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G108" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H108" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="20.1" customHeight="1">
       <c r="A109" t="s" s="7">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B109" t="s" s="7">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H109" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="20.1" customHeight="1">
       <c r="A110" t="s" s="7">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s" s="7">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G110" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G110" s="8"/>
+      <c r="H110" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="111" ht="20.1" customHeight="1">
       <c r="A111" t="s" s="7">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B111" t="s" s="7">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C111" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
-      <c r="G111" s="10"/>
+      <c r="G111" s="8"/>
+      <c r="H111" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="112" ht="20.1" customHeight="1">
       <c r="A112" t="s" s="7">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B112" t="s" s="7">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="10"/>
+      <c r="G112" s="8"/>
+      <c r="H112" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="113" ht="20.1" customHeight="1">
       <c r="A113" t="s" s="7">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B113" t="s" s="7">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
-      <c r="G113" s="10"/>
+      <c r="G113" s="8"/>
+      <c r="H113" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="114" ht="20.1" customHeight="1">
       <c r="A114" t="s" s="7">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B114" t="s" s="7">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C114" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G114" s="16"/>
+      <c r="H114" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="115" ht="20.1" customHeight="1">
       <c r="A115" t="s" s="7">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B115" t="s" s="7">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G115" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G115" s="8"/>
+      <c r="H115" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="116" ht="20.1" customHeight="1">
       <c r="A116" t="s" s="7">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B116" t="s" s="7">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F116" s="8"/>
-      <c r="G116" t="s" s="11">
-        <v>16</v>
+      <c r="G116" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H116" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="20.1" customHeight="1">
       <c r="A117" t="s" s="7">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B117" t="s" s="7">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
-      <c r="G117" s="10"/>
+      <c r="G117" s="8"/>
+      <c r="H117" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="118" ht="20.1" customHeight="1">
       <c r="A118" t="s" s="7">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B118" t="s" s="7">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
-      <c r="G118" s="10"/>
+      <c r="G118" s="8"/>
+      <c r="H118" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="119" ht="20.1" customHeight="1">
       <c r="A119" t="s" s="7">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B119" t="s" s="7">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F119" s="8"/>
-      <c r="G119" s="10"/>
+      <c r="G119" s="8"/>
+      <c r="H119" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="120" ht="20.1" customHeight="1">
       <c r="A120" t="s" s="7">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B120" t="s" s="7">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
-      <c r="G120" s="10"/>
+      <c r="G120" s="8"/>
+      <c r="H120" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="121" ht="20.1" customHeight="1">
       <c r="A121" t="s" s="7">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B121" t="s" s="7">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F121" s="8"/>
-      <c r="G121" s="10"/>
+      <c r="G121" s="8"/>
+      <c r="H121" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="122" ht="20.1" customHeight="1">
       <c r="A122" t="s" s="7">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B122" t="s" s="7">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
-      <c r="G122" s="10"/>
+      <c r="G122" s="8"/>
+      <c r="H122" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="123" ht="20.1" customHeight="1">
       <c r="A123" t="s" s="7">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B123" t="s" s="7">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G123" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G123" s="8"/>
+      <c r="H123" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="124" ht="20.1" customHeight="1">
       <c r="A124" t="s" s="7">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B124" t="s" s="7">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F124" s="8"/>
-      <c r="G124" s="10"/>
+      <c r="G124" s="8"/>
+      <c r="H124" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="125" ht="20.1" customHeight="1">
       <c r="A125" t="s" s="7">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B125" t="s" s="7">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
-      <c r="G125" t="s" s="11">
-        <v>16</v>
+      <c r="G125" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H125" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="20.1" customHeight="1">
       <c r="A126" t="s" s="7">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B126" t="s" s="7">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
-      <c r="G126" s="10"/>
+      <c r="G126" s="8"/>
+      <c r="H126" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="127" ht="20.1" customHeight="1">
       <c r="A127" t="s" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B127" t="s" s="7">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G127" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G127" s="8"/>
+      <c r="H127" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="128" ht="20.1" customHeight="1">
       <c r="A128" t="s" s="7">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B128" t="s" s="7">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C128" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
-      <c r="G128" s="10"/>
+      <c r="G128" s="8"/>
+      <c r="H128" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="129" ht="20.1" customHeight="1">
       <c r="A129" t="s" s="7">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B129" t="s" s="7">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C129" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H129" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="20.1" customHeight="1">
       <c r="A130" t="s" s="7">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B130" t="s" s="7">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C130" s="8"/>
-      <c r="D130" s="17"/>
+      <c r="D130" s="16"/>
       <c r="E130" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F130" s="8"/>
-      <c r="G130" t="s" s="11">
-        <v>16</v>
+      <c r="G130" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H130" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="20.1" customHeight="1">
       <c r="A131" t="s" s="7">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B131" t="s" s="7">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
-      <c r="G131" s="10"/>
+      <c r="G131" s="8"/>
+      <c r="H131" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="132" ht="20.1" customHeight="1">
       <c r="A132" t="s" s="7">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B132" t="s" s="7">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
-      <c r="G132" s="10"/>
+      <c r="G132" s="8"/>
+      <c r="H132" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="133" ht="20.1" customHeight="1">
       <c r="A133" t="s" s="7">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B133" t="s" s="7">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C133" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
-      <c r="G133" s="10"/>
+      <c r="G133" s="8"/>
+      <c r="H133" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="134" ht="20.1" customHeight="1">
       <c r="A134" t="s" s="7">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B134" t="s" s="7">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
-      <c r="G134" s="10"/>
+      <c r="G134" s="8"/>
+      <c r="H134" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="135" ht="20.1" customHeight="1">
       <c r="A135" t="s" s="7">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B135" t="s" s="7">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F135" s="8"/>
-      <c r="G135" t="s" s="11">
-        <v>16</v>
+      <c r="G135" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H135" t="s" s="10">
+        <v>282</v>
       </c>
     </row>
     <row r="136" ht="20.1" customHeight="1">
       <c r="A136" t="s" s="7">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B136" t="s" s="7">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G136" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G136" s="8"/>
+      <c r="H136" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="137" ht="20.1" customHeight="1">
       <c r="A137" t="s" s="7">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B137" t="s" s="7">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C137" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F137" s="8"/>
-      <c r="G137" s="10"/>
+      <c r="G137" s="8"/>
+      <c r="H137" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="138" ht="20.1" customHeight="1">
       <c r="A138" t="s" s="7">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B138" t="s" s="7">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C138" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F138" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G138" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H138" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="139" ht="20.1" customHeight="1">
       <c r="A139" t="s" s="7">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B139" t="s" s="7">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G139" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G139" s="8"/>
+      <c r="H139" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="140" ht="20.1" customHeight="1">
       <c r="A140" t="s" s="7">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B140" t="s" s="7">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
-      <c r="G140" s="10"/>
+      <c r="G140" s="8"/>
+      <c r="H140" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="141" ht="20.1" customHeight="1">
       <c r="A141" t="s" s="7">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B141" t="s" s="7">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F141" s="8"/>
-      <c r="G141" t="s" s="11">
-        <v>16</v>
+      <c r="G141" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H141" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="142" ht="20.1" customHeight="1">
       <c r="A142" t="s" s="7">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B142" t="s" s="7">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
-      <c r="G142" s="10"/>
+      <c r="G142" s="8"/>
+      <c r="H142" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="143" ht="20.1" customHeight="1">
-      <c r="A143" t="s" s="18">
-        <v>290</v>
-      </c>
-      <c r="B143" t="s" s="18">
-        <v>291</v>
+      <c r="A143" t="s" s="17">
+        <v>297</v>
+      </c>
+      <c r="B143" t="s" s="17">
+        <v>298</v>
       </c>
       <c r="C143" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F143" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G143" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G143" s="8"/>
+      <c r="H143" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="144" ht="20.1" customHeight="1">
-      <c r="A144" t="s" s="18">
-        <v>292</v>
-      </c>
-      <c r="B144" t="s" s="18">
-        <v>293</v>
+      <c r="A144" t="s" s="17">
+        <v>299</v>
+      </c>
+      <c r="B144" t="s" s="17">
+        <v>300</v>
       </c>
       <c r="C144" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
-      <c r="G144" s="10"/>
+      <c r="G144" s="8"/>
+      <c r="H144" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="145" ht="20.1" customHeight="1">
-      <c r="A145" t="s" s="18">
-        <v>294</v>
-      </c>
-      <c r="B145" s="8"/>
+      <c r="A145" t="s" s="17">
+        <v>301</v>
+      </c>
+      <c r="B145" t="s" s="7">
+        <v>302</v>
+      </c>
       <c r="C145" s="8"/>
-      <c r="D145" s="17"/>
+      <c r="D145" s="16"/>
       <c r="E145" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="16"/>
+      <c r="H145" s="18"/>
     </row>
     <row r="146" ht="20.1" customHeight="1">
       <c r="A146" t="s" s="7">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B146" t="s" s="14">
-        <v>296</v>
-      </c>
-      <c r="C146" s="17"/>
+        <v>304</v>
+      </c>
+      <c r="C146" s="16"/>
       <c r="D146" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="8"/>
+      <c r="H146" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="147" ht="20.1" customHeight="1">
-      <c r="A147" t="s" s="7">
-        <v>297</v>
-      </c>
-      <c r="B147" t="s" s="7">
-        <v>298</v>
-      </c>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="G147" s="10"/>
+      <c r="A147" t="s" s="19">
+        <v>305</v>
+      </c>
+      <c r="B147" t="s" s="19">
+        <v>306</v>
+      </c>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G147" s="20"/>
+      <c r="H147" t="s" s="22">
+        <v>307</v>
+      </c>
     </row>
     <row r="148" ht="20.1" customHeight="1">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="10"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="24"/>
     </row>
     <row r="149" ht="20.1" customHeight="1">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="10"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="27"/>
     </row>
     <row r="150" ht="20.1" customHeight="1">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="10"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="27"/>
     </row>
     <row r="151" ht="20.1" customHeight="1">
-      <c r="A151" s="19"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="20"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel-data.xlsx
+++ b/excel-data.xlsx
@@ -5,13 +5,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="0615更新" sheetId="1" r:id="rId4"/>
+    <sheet name="0524更新" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>Line名</t>
   </si>
@@ -46,16 +46,16 @@
     <t>中</t>
   </si>
   <si>
+    <t>GL07LQ</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
-    <t>GL07LQ</t>
-  </si>
-  <si>
     <t>哲.</t>
   </si>
   <si>
-    <t>哲哲要來抓你啦</t>
+    <t>zнєzнє.ℓ</t>
   </si>
   <si>
     <t>射</t>
@@ -106,10 +106,10 @@
     <t>ᶜ希瑤.ℓ</t>
   </si>
   <si>
-    <t>安.</t>
-  </si>
-  <si>
-    <t>你最近好嗎..</t>
+    <t>楷</t>
+  </si>
+  <si>
+    <t>₊˚̶̶z̶e̶k̶a̶i̶.ئ</t>
   </si>
   <si>
     <t>Yung傑</t>
@@ -145,10 +145,10 @@
     <t>Xiaosong..</t>
   </si>
   <si>
-    <t>琳</t>
-  </si>
-  <si>
-    <t>˖Łуииииﻬ·ִֶָ</t>
+    <t xml:space="preserve">Johnny  Lee </t>
+  </si>
+  <si>
+    <t>KK 棒棒糖球</t>
   </si>
   <si>
     <t>熊熊🐼</t>
@@ -157,10 +157,10 @@
     <t>暖熊ʙᴇᴀʀ..</t>
   </si>
   <si>
-    <t>Alvin</t>
-  </si>
-  <si>
-    <t>Âʟᴠɪɴ封測玩家</t>
+    <t>少</t>
+  </si>
+  <si>
+    <t>ᴠ̶ᴇ̶ɴ̶ᴜ̶s̶☻</t>
   </si>
   <si>
     <t>王崇懿</t>
@@ -169,10 +169,10 @@
     <t>战神与白甜♬</t>
   </si>
   <si>
-    <t>涵</t>
-  </si>
-  <si>
-    <t>Haᴎᴎᴎ..</t>
+    <t>勲</t>
+  </si>
+  <si>
+    <t>ʜᴀʏᴀᴛᴇღ..</t>
   </si>
   <si>
     <t>Itachi</t>
@@ -181,10 +181,10 @@
     <t>ɪᴛᴀᴄʜɪ..₰</t>
   </si>
   <si>
-    <t>Lung</t>
-  </si>
-  <si>
-    <t>̶ʏ̶ᴜ̶x̶ɪ̶.*ღ</t>
+    <t>憲..</t>
+  </si>
+  <si>
+    <t>老子渣男.ℓ₊+</t>
   </si>
   <si>
     <t>思</t>
@@ -211,10 +211,10 @@
     <t>ᴡᴇɪʏᴜ..</t>
   </si>
   <si>
-    <t>俊.</t>
-  </si>
-  <si>
-    <t>少爷☻</t>
+    <t>豪欸</t>
+  </si>
+  <si>
+    <t>AloneGod</t>
   </si>
   <si>
     <t>宇</t>
@@ -241,16 +241,16 @@
     <t>ᴛᴏᴍᴀᴛᴏ♪</t>
   </si>
   <si>
-    <t>hao</t>
-  </si>
-  <si>
-    <t>⸝⸝ིྀH̶α̶ö̶.໒꒰ྀི˵•༝•˵꒱ྀིა</t>
-  </si>
-  <si>
-    <t>澤澤澤澤澤澤澤澤</t>
-  </si>
-  <si>
-    <t>Yᴀи½ᴢ!E..</t>
+    <t>150(真圓)</t>
+  </si>
+  <si>
+    <t>149.⸝⸝ᥫᩣ</t>
+  </si>
+  <si>
+    <t>吳聲佑</t>
+  </si>
+  <si>
+    <t>WHŸ</t>
   </si>
   <si>
     <t>乾郡</t>
@@ -301,19 +301,16 @@
     <t>Y̷u̷u̷n̷o̷ℓ.*&amp;海螺</t>
   </si>
   <si>
-    <t>Lulu</t>
-  </si>
-  <si>
-    <t>ʟᴜʟᴜ、•ᴗ•</t>
-  </si>
-  <si>
-    <t>AA4</t>
-  </si>
-  <si>
-    <t>達</t>
-  </si>
-  <si>
-    <t>ʙᴇʟʟᴀღ</t>
+    <t>林佑軒</t>
+  </si>
+  <si>
+    <t>TMD佑佑man</t>
+  </si>
+  <si>
+    <t>Wu Wen ✿</t>
+  </si>
+  <si>
+    <t>ᴍɪʏᴀʕ͙˒ིྀ͡˔˓͙Ɂ</t>
   </si>
   <si>
     <t>培宸</t>
@@ -334,10 +331,10 @@
     <t>Ĥıĸarı_†</t>
   </si>
   <si>
-    <t>李宗翰</t>
-  </si>
-  <si>
-    <t>₊˚̶ᴅ̶ᴇ̶s̶ᴛ̶ɪ̶ɴ̶ʏ̶₰</t>
+    <t>默貓</t>
+  </si>
+  <si>
+    <t>Faithful...</t>
   </si>
   <si>
     <t>丞</t>
@@ -346,10 +343,10 @@
     <t>Cʜᴇиg..</t>
   </si>
   <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>๑ʘ̅星夜ʘ̅๑</t>
+    <t>堃</t>
+  </si>
+  <si>
+    <t>《阿堃是誰 》</t>
   </si>
   <si>
     <t>吳宗裎</t>
@@ -376,10 +373,10 @@
     <t>тαυяυѕ₊₰</t>
   </si>
   <si>
-    <t>鄭凱宸</t>
-  </si>
-  <si>
-    <t>C̶h̶e̶n̶ღ</t>
+    <t>Ting</t>
+  </si>
+  <si>
+    <t>别让小伃不开心</t>
   </si>
   <si>
     <t>Ayers🐬</t>
@@ -406,10 +403,10 @@
     <t>.*˖羽妃⁎ɞ</t>
   </si>
   <si>
-    <t>Matthew.L</t>
-  </si>
-  <si>
-    <t>sᴇᴇʏᴀ.☻</t>
+    <t>鈞皓</t>
+  </si>
+  <si>
+    <t>ʜᴀᴏᴏᴏᴏ..</t>
   </si>
   <si>
     <t>黃冠傑</t>
@@ -424,19 +421,16 @@
     <t>̷Y̷u̷h̷a̷o̷.໒꒱ི</t>
   </si>
   <si>
-    <t>ch</t>
-  </si>
-  <si>
-    <t>还会记得你吖..</t>
+    <t>阿豪</t>
+  </si>
+  <si>
+    <t>ᦗᩚ滿眼都是妳᭄</t>
   </si>
   <si>
     <t>Yu..</t>
   </si>
   <si>
-    <t>余生沉沉心悦兮</t>
-  </si>
-  <si>
-    <t>AA</t>
+    <t>SGK_YυXυɳ</t>
   </si>
   <si>
     <t>軒</t>
@@ -475,10 +469,10 @@
     <t>做情绪的主人</t>
   </si>
   <si>
-    <t>陳</t>
-  </si>
-  <si>
-    <t>✿Bȿ:鐵樹銀花₰</t>
+    <t>陳一</t>
+  </si>
+  <si>
+    <t>ClosER</t>
   </si>
   <si>
     <t>勳</t>
@@ -505,10 +499,10 @@
     <t>蘇蘇</t>
   </si>
   <si>
-    <t>Yi-xian</t>
-  </si>
-  <si>
-    <t>★sᴛᴀʀʀɪᴠᴇʀ★</t>
+    <t>🌸</t>
+  </si>
+  <si>
+    <t>･₊Moonˎﻬ</t>
   </si>
   <si>
     <t>Box</t>
@@ -517,10 +511,10 @@
     <t>張紙箱</t>
   </si>
   <si>
-    <t>小陈</t>
-  </si>
-  <si>
-    <t>C̷h̷e̷n̷..</t>
+    <t>ㄩㄑㄣ</t>
+  </si>
+  <si>
+    <t>技能不要瞎滑..</t>
   </si>
   <si>
     <t>旻峰</t>
@@ -541,10 +535,10 @@
     <t>Jk…</t>
   </si>
   <si>
-    <t>陳柏翔</t>
-  </si>
-  <si>
-    <t>xɪᴀᴏxɪᴀɴɢ..</t>
+    <t>文謙</t>
+  </si>
+  <si>
+    <t>W̷e̷n̴̶n̴̶n̴̶.ℓ</t>
   </si>
   <si>
     <t>俊懿.</t>
@@ -559,10 +553,10 @@
     <t>Baᴏᴢ́hu….</t>
   </si>
   <si>
-    <t>獻🔥</t>
-  </si>
-  <si>
-    <t>Sølips</t>
+    <t>魔鬼</t>
+  </si>
+  <si>
+    <t>殺手經紀人</t>
   </si>
   <si>
     <t>柳彥陞</t>
@@ -595,22 +589,22 @@
     <t>傷心雞塊</t>
   </si>
   <si>
-    <t>白꒰⸝⸝•ᴗ•꒱⸝*</t>
-  </si>
-  <si>
-    <t>開圖別撞我…</t>
-  </si>
-  <si>
-    <t>MiMi</t>
-  </si>
-  <si>
-    <t>社會你米姊.</t>
-  </si>
-  <si>
-    <t>Yenzi</t>
-  </si>
-  <si>
-    <t>ʏzz.٩(•</t>
+    <t>威利</t>
+  </si>
+  <si>
+    <t>sᴜᴘᴇʀᴍᴀɴ.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>可莉的狗...</t>
+  </si>
+  <si>
+    <t>瀚</t>
+  </si>
+  <si>
+    <t>風過水淌緣無常</t>
   </si>
   <si>
     <t>喜德</t>
@@ -625,16 +619,16 @@
     <t>₊‧推̶推̶‧₊໒꒱ིྀ</t>
   </si>
   <si>
-    <t>高宥佳</t>
-  </si>
-  <si>
-    <t>Deᴎᴎᴎis.₰</t>
-  </si>
-  <si>
-    <t>威丞</t>
-  </si>
-  <si>
-    <t>空間感知大師</t>
+    <t>𝔁𝓾𝓪𝓷</t>
+  </si>
+  <si>
+    <t>sxᴜᴀиིྀ..</t>
+  </si>
+  <si>
+    <t>陳彥翔</t>
+  </si>
+  <si>
+    <t>Xɪᴀиʜᴀи⸝•ᴗ•⸝</t>
   </si>
   <si>
     <t>可青</t>
@@ -673,22 +667,22 @@
     <t>̶H̶a̶n̶²♡</t>
   </si>
   <si>
-    <t>陳以恩</t>
+    <t>chen</t>
   </si>
   <si>
     <t>S̶ᴜ̶ʀ̶ᴘ̶ʟ̶ᴜ̶s̶</t>
   </si>
   <si>
-    <t>翁梓杰</t>
-  </si>
-  <si>
-    <t>ᴢɪ_ᴊɪᴇ 杰</t>
+    <t>krista*</t>
+  </si>
+  <si>
+    <t>☻婷婷</t>
   </si>
   <si>
     <t>黃</t>
   </si>
   <si>
-    <t>ʜuᴀɴɢ..</t>
+    <t>ʏue..</t>
   </si>
   <si>
     <t>陳褘倢</t>
@@ -718,10 +712,10 @@
     <t>Zheliang☻</t>
   </si>
   <si>
-    <t>YuRenChan</t>
-  </si>
-  <si>
-    <t>Mis°..ღRen♪</t>
+    <t>YouXi</t>
+  </si>
+  <si>
+    <t>YouXi.</t>
   </si>
   <si>
     <t>J</t>
@@ -736,10 +730,10 @@
     <t>Minyu…</t>
   </si>
   <si>
-    <t>Yuna</t>
-  </si>
-  <si>
-    <t>･˖璇ˎﻬ</t>
+    <t xml:space="preserve">銅銅 </t>
+  </si>
+  <si>
+    <t>.⁎ᴛᴏɴɢ*̶.ℓ</t>
   </si>
   <si>
     <t>柏清哥</t>
@@ -751,7 +745,7 @@
     <t>晴晴</t>
   </si>
   <si>
-    <t>cнιиg₊₰</t>
+    <t>清酒☻₊</t>
   </si>
   <si>
     <t>Yue</t>
@@ -760,10 +754,10 @@
     <t>ᴀʜᴄʏོ</t>
   </si>
   <si>
-    <t>.x̶ɪᴀɴɢ°</t>
-  </si>
-  <si>
-    <t>XIANG ☻</t>
+    <t>Lun</t>
+  </si>
+  <si>
+    <t>LuN₊•ᴗ•₊</t>
   </si>
   <si>
     <t>江承翰</t>
@@ -778,10 +772,10 @@
     <t>讠DL لing</t>
   </si>
   <si>
-    <t>Siou🌼</t>
-  </si>
-  <si>
-    <t>いおり茶喵✿</t>
+    <t xml:space="preserve">均. </t>
+  </si>
+  <si>
+    <t>古木木木…</t>
   </si>
   <si>
     <t>文</t>
@@ -838,13 +832,13 @@
     <t>Li YaNg</t>
   </si>
   <si>
-    <t>Benz平凡人</t>
-  </si>
-  <si>
-    <t>Ruichi</t>
-  </si>
-  <si>
-    <t>Nɪɢʜᴛɴɪɢʜᴛ♪</t>
+    <t>小林葛格☻</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>ᴏɴᴄᴇئ</t>
   </si>
   <si>
     <t>絮</t>
@@ -862,7 +856,7 @@
     <t>妤˚</t>
   </si>
   <si>
-    <t>‧₊˚金妤腦⁎໒꒱ིྀ</t>
+    <t>摳妮吉娃☻</t>
   </si>
   <si>
     <t>小智</t>
@@ -874,7 +868,7 @@
     <t>宇傑</t>
   </si>
   <si>
-    <t>ʏ̶ᴜ̶ᴊ̶ᴀ̶ʏ̶ </t>
+    <t xml:space="preserve"> ʏ̶ᴜ̶ᴊ̶ᴀ̶ʏ̶ </t>
   </si>
   <si>
     <t>妤🐠</t>
@@ -883,16 +877,16 @@
     <t>77.乳加巧克力</t>
   </si>
   <si>
-    <t>糖.</t>
-  </si>
-  <si>
-    <t>˚Lyuu”</t>
+    <t xml:space="preserve">蘇永哲 </t>
+  </si>
+  <si>
+    <t>ᴊσ̶ʜɴ.♪</t>
   </si>
   <si>
     <t>A.W.</t>
   </si>
   <si>
-    <t>хɪᴀᴏхɪ..</t>
+    <t>ᴊᴜsᴛʜᴇɪ..</t>
   </si>
   <si>
     <t>何誌勳</t>
@@ -901,16 +895,34 @@
     <t>iixuoe..</t>
   </si>
   <si>
-    <t>林意翔</t>
-  </si>
-  <si>
-    <t>JTW༄悲❦࿐</t>
+    <t>劉佳育</t>
+  </si>
+  <si>
+    <t>養樂多多..٩(•ᴗ•)</t>
   </si>
   <si>
     <t>韓博韜</t>
   </si>
   <si>
     <t>野區小跑車.ℓ</t>
+  </si>
+  <si>
+    <t>清流</t>
+  </si>
+  <si>
+    <t>sʏᴜᴀɴ.ᵜ.</t>
+  </si>
+  <si>
+    <t>聖恩</t>
+  </si>
+  <si>
+    <t>╭∩╮(｀⌒´メ)</t>
+  </si>
+  <si>
+    <t>泉犬</t>
+  </si>
+  <si>
+    <t>⁎*‧x̶ɪ̶ɴ̶ɢ̶ᴊ̶ᴜ̶ɴ̶</t>
   </si>
 </sst>
 </file>
@@ -920,11 +932,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="新細明體"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
@@ -943,21 +955,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <color indexed="9"/>
+      <name val="新細明體"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,13 +973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -995,122 +996,123 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="10"/>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="medium">
-        <color indexed="10"/>
+      <top style="thin">
+        <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,19 +1131,17 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffcccccc"/>
+      <rgbColor rgb="ffb7b7b7"/>
       <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff0000"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office 佈景主題">
+    <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -1155,22 +1155,22 @@
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -1179,7 +1179,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 佈景主題">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -1191,7 +1191,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 佈景主題">
+    <a:fmtScheme name="Sheets">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1341,7 +1341,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1369,10 +1369,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1912,7 +1912,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1940,10 +1940,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2194,20 +2194,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3516" style="1" customWidth="1"/>
-    <col min="3" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.35156" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="7" width="6.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85156" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="20.1" customHeight="1">
+    <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>8</v>
       </c>
@@ -2242,82 +2245,78 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" t="s" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="20.1" customHeight="1">
-      <c r="A3" t="s" s="3">
-        <v>12</v>
-      </c>
       <c r="B3" t="s" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="20.1" customHeight="1">
+      <c r="H3" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
       <c r="A4" t="s" s="3">
         <v>13</v>
       </c>
       <c r="B4" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="20.1" customHeight="1">
+      <c r="E4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1">
       <c r="A5" t="s" s="3">
         <v>18</v>
       </c>
       <c r="B5" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="C5" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="3">
+      <c r="C5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
       <c r="A6" t="s" s="3">
         <v>21</v>
       </c>
@@ -2326,16 +2325,16 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" t="s" s="3">
+      <c r="E6" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
+      <c r="H6" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1">
       <c r="A7" t="s" s="3">
         <v>23</v>
       </c>
@@ -2345,35 +2344,33 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" t="s" s="3">
+      <c r="F7" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
+      <c r="H7" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1">
       <c r="A8" t="s" s="3">
         <v>25</v>
       </c>
       <c r="B8" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s" s="3">
+      <c r="C8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
       <c r="A9" t="s" s="3">
         <v>27</v>
       </c>
@@ -2381,17 +2378,15 @@
         <v>28</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" t="s" s="3">
+      <c r="D9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
       <c r="A10" t="s" s="3">
         <v>29</v>
       </c>
@@ -2400,32 +2395,34 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
       <c r="A11" t="s" s="3">
         <v>31</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1">
       <c r="A12" t="s" s="3">
         <v>33</v>
       </c>
@@ -2435,42 +2432,40 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
       <c r="A13" t="s" s="3">
         <v>35</v>
       </c>
       <c r="B13" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
-      <c r="A14" s="7">
+      <c r="C13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="6">
         <v>7</v>
       </c>
       <c r="B14" t="s" s="3">
@@ -2480,14 +2475,12 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="20.1" customHeight="1">
+      <c r="G14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
       <c r="A15" t="s" s="3">
         <v>38</v>
       </c>
@@ -2496,230 +2489,226 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" t="s" s="3">
+      <c r="E15" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
+      <c r="G15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
       <c r="A16" t="s" s="3">
         <v>40</v>
       </c>
       <c r="B16" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="C16" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s" s="3">
+      <c r="C16" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" t="s" s="3">
+      <c r="F16" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
+      <c r="H16" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1">
       <c r="A17" t="s" s="3">
         <v>42</v>
       </c>
       <c r="B17" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="C17" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s" s="3">
+      <c r="C17" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" ht="16" customHeight="1">
       <c r="A18" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="C18" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="C18" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>10</v>
+      </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
+      <c r="G18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1">
       <c r="A19" t="s" s="3">
         <v>46</v>
       </c>
       <c r="B19" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="C19" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s" s="3">
+      <c r="C19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
+      <c r="F19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="16" customHeight="1">
       <c r="A20" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="8">
         <v>49</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s" s="3">
+      <c r="C20" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
+      <c r="G20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="1">
       <c r="A21" t="s" s="3">
         <v>50</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="10">
         <v>51</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
+      <c r="H21" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="1">
       <c r="A22" t="s" s="3">
         <v>52</v>
       </c>
       <c r="B22" t="s" s="3">
         <v>53</v>
       </c>
-      <c r="C22" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
+      <c r="C22" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="1">
       <c r="A23" t="s" s="3">
         <v>54</v>
       </c>
       <c r="B23" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="C23" t="s" s="3">
+      <c r="C23" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="1">
+      <c r="F23" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" ht="16" customHeight="1">
       <c r="A24" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="B24" t="s" s="9">
+      <c r="B24" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" t="s" s="8">
-        <v>10</v>
-      </c>
+      <c r="C24" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="20.1" customHeight="1">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" ht="16" customHeight="1">
       <c r="A25" t="s" s="3">
         <v>58</v>
       </c>
       <c r="B25" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="C25" t="s" s="3">
+      <c r="C25" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="20.1" customHeight="1">
+      <c r="E25" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
       <c r="A26" t="s" s="3">
         <v>60</v>
       </c>
@@ -2729,35 +2718,31 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="20.1" customHeight="1">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" ht="16" customHeight="1">
       <c r="A27" t="s" s="3">
         <v>62</v>
       </c>
       <c r="B27" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" ht="20.1" customHeight="1">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" ht="16" customHeight="1">
       <c r="A28" t="s" s="3">
         <v>64</v>
       </c>
@@ -2766,72 +2751,66 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" t="s" s="3">
+      <c r="E28" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" ht="20.1" customHeight="1">
+      <c r="H28" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="16" customHeight="1">
       <c r="A29" t="s" s="3">
         <v>66</v>
       </c>
       <c r="B29" t="s" s="3">
         <v>67</v>
       </c>
-      <c r="C29" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s" s="8">
-        <v>20</v>
-      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" t="s" s="2">
+        <v>16</v>
+      </c>
       <c r="G29" s="4"/>
-      <c r="H29" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" ht="20.1" customHeight="1">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" ht="16" customHeight="1">
       <c r="A30" t="s" s="3">
         <v>68</v>
       </c>
       <c r="B30" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="C30" t="s" s="8">
+      <c r="C30" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" ht="20.1" customHeight="1">
+      <c r="H30" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1">
       <c r="A31" t="s" s="3">
         <v>70</v>
       </c>
       <c r="B31" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" ht="20.1" customHeight="1">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" ht="16" customHeight="1">
       <c r="A32" t="s" s="3">
         <v>72</v>
       </c>
@@ -2842,14 +2821,14 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" ht="20.1" customHeight="1">
+      <c r="G32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="16" customHeight="1">
       <c r="A33" t="s" s="3">
         <v>74</v>
       </c>
@@ -2857,119 +2836,107 @@
         <v>75</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" ht="20.1" customHeight="1">
+      <c r="H33" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="16" customHeight="1">
       <c r="A34" t="s" s="3">
         <v>76</v>
       </c>
       <c r="B34" t="s" s="3">
         <v>77</v>
       </c>
-      <c r="C34" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" t="s" s="2">
+        <v>10</v>
+      </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" ht="20.1" customHeight="1">
+      <c r="G34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" ht="16" customHeight="1">
       <c r="A35" t="s" s="3">
         <v>78</v>
       </c>
       <c r="B35" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="C35" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s" s="3">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" ht="20.1" customHeight="1">
+      <c r="H35" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="1">
       <c r="A36" t="s" s="3">
         <v>80</v>
       </c>
       <c r="B36" t="s" s="3">
         <v>81</v>
       </c>
-      <c r="C36" t="s" s="3">
+      <c r="C36" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" ht="20.1" customHeight="1">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" ht="16" customHeight="1">
       <c r="A37" t="s" s="3">
         <v>82</v>
       </c>
       <c r="B37" t="s" s="3">
         <v>83</v>
       </c>
-      <c r="C37" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s" s="3">
+      <c r="C37" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" ht="20.1" customHeight="1">
+      <c r="H37" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="16" customHeight="1">
       <c r="A38" t="s" s="3">
         <v>84</v>
       </c>
       <c r="B38" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" ht="20.1" customHeight="1">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" ht="16" customHeight="1">
       <c r="A39" t="s" s="3">
         <v>86</v>
       </c>
@@ -2978,18 +2945,16 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" t="s" s="3">
+      <c r="E39" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" ht="20.1" customHeight="1">
+      <c r="G39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" ht="16" customHeight="1">
       <c r="A40" t="s" s="3">
         <v>88</v>
       </c>
@@ -2997,17 +2962,15 @@
         <v>89</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" ht="20.1" customHeight="1">
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" ht="16" customHeight="1">
       <c r="A41" t="s" s="3">
         <v>90</v>
       </c>
@@ -3018,14 +2981,12 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" ht="20.1" customHeight="1">
+      <c r="G41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" ht="16" customHeight="1">
       <c r="A42" t="s" s="3">
         <v>92</v>
       </c>
@@ -3033,21 +2994,21 @@
         <v>93</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E42" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s" s="3">
+      <c r="D42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" ht="20.1" customHeight="1">
+      <c r="H42" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="16" customHeight="1">
       <c r="A43" t="s" s="3">
         <v>94</v>
       </c>
@@ -3057,2130 +3018,2066 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" ht="20.1" customHeight="1">
+      <c r="H43" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="1">
       <c r="A44" t="s" s="3">
         <v>96</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" t="s" s="8">
         <v>97</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="E44" t="s" s="2">
+        <v>10</v>
+      </c>
       <c r="F44" s="4"/>
-      <c r="G44" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s" s="10">
+      <c r="G44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="16" customHeight="1">
+      <c r="A45" t="s" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" ht="20.1" customHeight="1">
-      <c r="A45" t="s" s="3">
+      <c r="B45" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="C45" s="12"/>
+      <c r="D45" s="4"/>
+      <c r="E45" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" ht="16" customHeight="1">
+      <c r="A46" t="s" s="3">
         <v>100</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" ht="20.1" customHeight="1">
-      <c r="A46" t="s" s="3">
+      <c r="B46" t="s" s="10">
         <v>101</v>
       </c>
-      <c r="B46" t="s" s="3">
+      <c r="C46" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="1">
+      <c r="A47" t="s" s="3">
         <v>102</v>
       </c>
-      <c r="C46" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D46" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="F46" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" ht="20.1" customHeight="1">
-      <c r="A47" t="s" s="3">
+      <c r="B47" t="s" s="3">
         <v>103</v>
-      </c>
-      <c r="B47" t="s" s="3">
-        <v>104</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" ht="20.1" customHeight="1">
+      <c r="G47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" ht="16" customHeight="1">
       <c r="A48" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s" s="3">
         <v>105</v>
-      </c>
-      <c r="B48" t="s" s="3">
-        <v>106</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" ht="20.1" customHeight="1">
+      <c r="G48" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="16" customHeight="1">
       <c r="A49" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s" s="8">
         <v>107</v>
       </c>
-      <c r="B49" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E49" s="4"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="4"/>
+      <c r="E49" t="s" s="2">
+        <v>10</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1">
+      <c r="H49" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="16" customHeight="1">
       <c r="A50" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s" s="10">
         <v>109</v>
       </c>
-      <c r="B50" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" ht="16" customHeight="1">
       <c r="A51" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s" s="3">
         <v>111</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="C51" s="4"/>
+      <c r="D51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="1">
+      <c r="A52" t="s" s="3">
         <v>112</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" ht="20.1" customHeight="1">
-      <c r="A52" t="s" s="3">
+      <c r="B52" t="s" s="3">
         <v>113</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" ht="16" customHeight="1">
+      <c r="A53" t="s" s="3">
         <v>114</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" ht="20.1" customHeight="1">
-      <c r="A53" t="s" s="3">
+      <c r="B53" t="s" s="3">
         <v>115</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="C53" s="4"/>
+      <c r="D53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="16" customHeight="1">
+      <c r="A54" t="s" s="3">
         <v>116</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" ht="20.1" customHeight="1">
-      <c r="A54" t="s" s="3">
+      <c r="B54" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="B54" t="s" s="3">
+      <c r="C54" s="4"/>
+      <c r="D54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="16" customHeight="1">
+      <c r="A55" t="s" s="3">
         <v>118</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" ht="20.1" customHeight="1">
-      <c r="A55" t="s" s="3">
+      <c r="B55" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="B55" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" ht="20.1" customHeight="1">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" ht="16" customHeight="1">
       <c r="A56" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s" s="3">
         <v>121</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="C56" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="1">
+      <c r="A57" t="s" s="3">
         <v>122</v>
       </c>
-      <c r="C56" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E56" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" ht="20.1" customHeight="1">
-      <c r="A57" t="s" s="3">
+      <c r="B57" t="s" s="3">
         <v>123</v>
       </c>
-      <c r="B57" t="s" s="3">
-        <v>124</v>
-      </c>
-      <c r="C57" t="s" s="3">
+      <c r="C57" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="E57" t="s" s="3">
+      <c r="E57" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" ht="20.1" customHeight="1">
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" ht="16" customHeight="1">
       <c r="A58" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="B58" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="B58" t="s" s="3">
-        <v>126</v>
-      </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G58" s="4"/>
-      <c r="H58" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" ht="20.1" customHeight="1">
+      <c r="H58" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="16" customHeight="1">
       <c r="A59" t="s" s="3">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s" s="3">
         <v>127</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="C59" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" ht="16" customHeight="1">
+      <c r="A60" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E59" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F59" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" ht="20.1" customHeight="1">
-      <c r="A60" t="s" s="3">
+      <c r="B60" t="s" s="3">
         <v>129</v>
-      </c>
-      <c r="B60" t="s" s="3">
-        <v>130</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" ht="20.1" customHeight="1">
+      <c r="G60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" ht="16" customHeight="1">
       <c r="A61" t="s" s="3">
+        <v>130</v>
+      </c>
+      <c r="B61" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="B61" t="s" s="3">
-        <v>132</v>
-      </c>
-      <c r="C61" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" ht="20.1" customHeight="1">
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" ht="16" customHeight="1">
       <c r="A62" t="s" s="3">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s" s="7">
         <v>133</v>
       </c>
-      <c r="B62" t="s" s="3">
+      <c r="C62" s="4"/>
+      <c r="D62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" ht="16" customHeight="1">
+      <c r="A63" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" ht="20.1" customHeight="1">
-      <c r="A63" t="s" s="3">
+      <c r="B63" t="s" s="3">
         <v>135</v>
       </c>
-      <c r="B63" t="s" s="3">
-        <v>136</v>
-      </c>
-      <c r="C63" t="s" s="3">
+      <c r="C63" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" ht="20.1" customHeight="1">
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" ht="16" customHeight="1">
       <c r="A64" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="B64" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="C64" t="s" s="3">
-        <v>15</v>
-      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="F64" t="s" s="2">
+        <v>16</v>
+      </c>
       <c r="G64" s="4"/>
-      <c r="H64" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" ht="20.1" customHeight="1">
+      <c r="H64" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="16" customHeight="1">
       <c r="A65" t="s" s="3">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s" s="7">
         <v>139</v>
       </c>
-      <c r="B65" t="s" s="3">
+      <c r="C65" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" ht="16" customHeight="1">
+      <c r="A66" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="C65" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E65" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s" s="10">
+      <c r="B66" t="s" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="66" ht="20.1" customHeight="1">
-      <c r="A66" t="s" s="3">
-        <v>142</v>
-      </c>
-      <c r="B66" t="s" s="3">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s" s="3">
+      <c r="C66" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" ht="20.1" customHeight="1">
+      <c r="H66" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="16" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s" s="3">
-        <v>145</v>
-      </c>
-      <c r="C67" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D67" t="s" s="3">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" ht="20.1" customHeight="1">
+      <c r="H67" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="16" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" ht="20.1" customHeight="1">
+      <c r="G68" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" ht="16" customHeight="1">
       <c r="A69" t="s" s="3">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s" s="3">
-        <v>149</v>
-      </c>
-      <c r="C69" t="s" s="3">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" ht="20.1" customHeight="1">
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" ht="16" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s" s="3">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F70" s="4"/>
-      <c r="G70" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" ht="20.1" customHeight="1">
+      <c r="G70" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="16" customHeight="1">
       <c r="A71" t="s" s="3">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s" s="3">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" ht="16" customHeight="1">
+      <c r="A72" t="s" s="3">
         <v>152</v>
       </c>
-      <c r="B71" t="s" s="3">
+      <c r="B72" t="s" s="3">
         <v>153</v>
       </c>
-      <c r="C71" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D71" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E71" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" ht="20.1" customHeight="1">
-      <c r="A72" t="s" s="3">
-        <v>154</v>
-      </c>
-      <c r="B72" t="s" s="3">
-        <v>155</v>
-      </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" ht="20.1" customHeight="1">
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" ht="16" customHeight="1">
       <c r="A73" t="s" s="3">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s" s="3">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" ht="20.1" customHeight="1">
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" ht="16" customHeight="1">
       <c r="A74" t="s" s="3">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="16" customHeight="1">
+      <c r="A75" t="s" s="3">
         <v>158</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B75" t="s" s="3">
         <v>159</v>
       </c>
-      <c r="C74" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D74" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E74" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" ht="20.1" customHeight="1">
-      <c r="A75" t="s" s="3">
+      <c r="C75" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="16" customHeight="1">
+      <c r="A76" t="s" s="3">
         <v>160</v>
       </c>
-      <c r="B75" t="s" s="3">
+      <c r="B76" t="s" s="3">
         <v>161</v>
-      </c>
-      <c r="C75" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D75" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E75" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" ht="20.1" customHeight="1">
-      <c r="A76" t="s" s="3">
-        <v>162</v>
-      </c>
-      <c r="B76" t="s" s="3">
-        <v>163</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F76" s="4"/>
-      <c r="G76" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H76" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" ht="20.1" customHeight="1">
+      <c r="G76" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" ht="16" customHeight="1">
       <c r="A77" t="s" s="3">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" ht="16" customHeight="1">
+      <c r="A78" t="s" s="3">
         <v>164</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="B78" t="s" s="3">
         <v>165</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" ht="20.1" customHeight="1">
-      <c r="A78" t="s" s="3">
-        <v>166</v>
-      </c>
-      <c r="B78" t="s" s="3">
-        <v>167</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G78" s="4"/>
-      <c r="H78" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" ht="20.1" customHeight="1">
+      <c r="H78" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="16" customHeight="1">
       <c r="A79" t="s" s="3">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s" s="3">
+        <v>167</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="16" customHeight="1">
+      <c r="A80" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="B79" t="s" s="3">
+      <c r="B80" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" ht="20.1" customHeight="1">
-      <c r="A80" t="s" s="3">
-        <v>170</v>
-      </c>
-      <c r="B80" t="s" s="3">
-        <v>171</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" ht="20.1" customHeight="1">
+      <c r="H80" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="16" customHeight="1">
       <c r="A81" t="s" s="3">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B81" t="s" s="3">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" ht="20.1" customHeight="1">
+      <c r="H81" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="16" customHeight="1">
       <c r="A82" t="s" s="3">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s" s="3">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" ht="20.1" customHeight="1">
+      <c r="H82" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="16" customHeight="1">
       <c r="A83" t="s" s="3">
+        <v>174</v>
+      </c>
+      <c r="B83" t="s" s="7">
+        <v>175</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" ht="16" customHeight="1">
+      <c r="A84" t="s" s="3">
         <v>176</v>
       </c>
-      <c r="B83" t="s" s="3">
+      <c r="B84" t="s" s="3">
         <v>177</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" ht="20.1" customHeight="1">
-      <c r="A84" t="s" s="3">
-        <v>178</v>
-      </c>
-      <c r="B84" t="s" s="3">
-        <v>179</v>
-      </c>
-      <c r="C84" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D84" t="s" s="3">
+      <c r="C84" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" ht="20.1" customHeight="1">
+      <c r="H84" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="16" customHeight="1">
       <c r="A85" t="s" s="3">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B85" t="s" s="3">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" ht="20.1" customHeight="1">
-      <c r="A86" t="s" s="3">
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" ht="16" customHeight="1">
+      <c r="A86" t="s" s="15">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s" s="16">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="16" customHeight="1">
+      <c r="A87" t="s" s="10">
         <v>182</v>
       </c>
-      <c r="B86" t="s" s="3">
+      <c r="B87" t="s" s="3">
         <v>183</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G86" s="4"/>
-      <c r="H86" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" ht="20.1" customHeight="1">
-      <c r="A87" t="s" s="3">
-        <v>184</v>
-      </c>
-      <c r="B87" t="s" s="3">
-        <v>185</v>
-      </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" ht="20.1" customHeight="1">
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" ht="16" customHeight="1">
       <c r="A88" t="s" s="3">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B88" t="s" s="3">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F88" s="4"/>
-      <c r="G88" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" ht="20.1" customHeight="1">
+      <c r="G88" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" ht="16" customHeight="1">
       <c r="A89" t="s" s="3">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B89" t="s" s="3">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F89" s="4"/>
-      <c r="G89" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" ht="20.1" customHeight="1">
+      <c r="G89" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" ht="16" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>190</v>
-      </c>
-      <c r="B90" t="s" s="3">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="B90" t="s" s="7">
+        <v>189</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" ht="20.1" customHeight="1">
+      <c r="H90" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="16" customHeight="1">
       <c r="A91" t="s" s="3">
+        <v>190</v>
+      </c>
+      <c r="B91" t="s" s="3">
+        <v>191</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="16" customHeight="1">
+      <c r="A92" t="s" s="3">
         <v>192</v>
       </c>
-      <c r="B91" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>193</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E91" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F91" s="4"/>
-      <c r="G91" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" ht="20.1" customHeight="1">
-      <c r="A92" t="s" s="3">
+      <c r="C92" s="17"/>
+      <c r="D92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="16" customHeight="1">
+      <c r="A93" t="s" s="3">
         <v>194</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B93" t="s" s="3">
         <v>195</v>
-      </c>
-      <c r="C92" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F92" s="4"/>
-      <c r="G92" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" ht="20.1" customHeight="1">
-      <c r="A93" t="s" s="3">
-        <v>196</v>
-      </c>
-      <c r="B93" t="s" s="3">
-        <v>197</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G93" s="4"/>
-      <c r="H93" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" ht="20.1" customHeight="1">
+      <c r="E93" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="16" customHeight="1">
       <c r="A94" t="s" s="3">
+        <v>196</v>
+      </c>
+      <c r="B94" t="s" s="7">
+        <v>197</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" ht="16" customHeight="1">
+      <c r="A95" t="s" s="3">
         <v>198</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B95" t="s" s="3">
         <v>199</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E94" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" ht="20.1" customHeight="1">
-      <c r="A95" t="s" s="3">
-        <v>200</v>
-      </c>
-      <c r="B95" t="s" s="3">
-        <v>201</v>
-      </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" ht="20.1" customHeight="1">
+      <c r="H95" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="16" customHeight="1">
       <c r="A96" t="s" s="3">
+        <v>200</v>
+      </c>
+      <c r="B96" t="s" s="3">
+        <v>201</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" ht="16" customHeight="1">
+      <c r="A97" t="s" s="3">
         <v>202</v>
       </c>
-      <c r="B96" t="s" s="3">
+      <c r="B97" t="s" s="7">
         <v>203</v>
       </c>
-      <c r="C96" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D96" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G96" s="4"/>
-      <c r="H96" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" ht="20.1" customHeight="1">
-      <c r="A97" t="s" s="3">
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" ht="16" customHeight="1">
+      <c r="A98" t="s" s="3">
         <v>204</v>
       </c>
-      <c r="B97" t="s" s="3">
+      <c r="B98" t="s" s="8">
         <v>205</v>
       </c>
-      <c r="C97" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G97" s="4"/>
-      <c r="H97" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" ht="20.1" customHeight="1">
-      <c r="A98" t="s" s="3">
+      <c r="C98" s="12"/>
+      <c r="D98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="16" customHeight="1">
+      <c r="A99" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="B98" t="s" s="3">
+      <c r="B99" t="s" s="10">
         <v>207</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G98" s="4"/>
-      <c r="H98" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" ht="20.1" customHeight="1">
-      <c r="A99" t="s" s="3">
-        <v>208</v>
-      </c>
-      <c r="B99" t="s" s="3">
-        <v>209</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F99" s="4"/>
-      <c r="G99" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" ht="20.1" customHeight="1">
+      <c r="G99" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" ht="16" customHeight="1">
       <c r="A100" t="s" s="3">
+        <v>208</v>
+      </c>
+      <c r="B100" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="16" customHeight="1">
+      <c r="A101" t="s" s="3">
         <v>210</v>
       </c>
-      <c r="B100" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>211</v>
-      </c>
-      <c r="C100" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D100" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E100" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" ht="20.1" customHeight="1">
-      <c r="A101" t="s" s="3">
-        <v>212</v>
-      </c>
-      <c r="B101" t="s" s="3">
-        <v>213</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F101" s="4"/>
-      <c r="G101" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" ht="20.1" customHeight="1">
+      <c r="G101" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" ht="16" customHeight="1">
       <c r="A102" t="s" s="3">
+        <v>212</v>
+      </c>
+      <c r="B102" t="s" s="3">
+        <v>213</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" ht="16" customHeight="1">
+      <c r="A103" t="s" s="3">
         <v>214</v>
       </c>
-      <c r="B102" t="s" s="3">
+      <c r="B103" t="s" s="3">
         <v>215</v>
-      </c>
-      <c r="C102" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D102" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E102" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H102" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" ht="20.1" customHeight="1">
-      <c r="A103" t="s" s="3">
-        <v>216</v>
-      </c>
-      <c r="B103" t="s" s="3">
-        <v>217</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G103" s="4"/>
-      <c r="H103" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" ht="20.1" customHeight="1">
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" ht="16" customHeight="1">
       <c r="A104" t="s" s="3">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s" s="3">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" ht="20.1" customHeight="1">
+      <c r="G104" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" ht="16" customHeight="1">
       <c r="A105" t="s" s="3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B105" t="s" s="3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F105" s="4"/>
+      <c r="E105" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>16</v>
+      </c>
       <c r="G105" s="4"/>
-      <c r="H105" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" ht="20.1" customHeight="1">
+      <c r="H105" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="16" customHeight="1">
       <c r="A106" t="s" s="3">
+        <v>220</v>
+      </c>
+      <c r="B106" t="s" s="7">
+        <v>221</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" ht="16" customHeight="1">
+      <c r="A107" t="s" s="3">
         <v>222</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B107" t="s" s="18">
         <v>223</v>
       </c>
-      <c r="C106" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D106" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E106" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H106" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" ht="20.1" customHeight="1">
-      <c r="A107" t="s" s="3">
+      <c r="C107" s="4"/>
+      <c r="D107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" ht="16" customHeight="1">
+      <c r="A108" t="s" s="3">
         <v>224</v>
       </c>
-      <c r="B107" t="s" s="9">
+      <c r="B108" t="s" s="3">
         <v>225</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="4"/>
-      <c r="H107" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" ht="20.1" customHeight="1">
-      <c r="A108" t="s" s="3">
+      <c r="C108" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="16" customHeight="1">
+      <c r="A109" t="s" s="3">
         <v>226</v>
       </c>
-      <c r="B108" t="s" s="3">
+      <c r="B109" t="s" s="3">
         <v>227</v>
       </c>
-      <c r="C108" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E108" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H108" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" ht="20.1" customHeight="1">
-      <c r="A109" t="s" s="3">
+      <c r="C109" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="16" customHeight="1">
+      <c r="A110" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="B110" t="s" s="3">
         <v>228</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="C110" s="4"/>
+      <c r="D110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" ht="16" customHeight="1">
+      <c r="A111" t="s" s="3">
         <v>229</v>
       </c>
-      <c r="C109" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E109" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F109" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H109" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" ht="20.1" customHeight="1">
-      <c r="A110" t="s" s="3">
-        <v>125</v>
-      </c>
-      <c r="B110" t="s" s="3">
+      <c r="B111" t="s" s="3">
         <v>230</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E110" s="4"/>
-      <c r="F110" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G110" s="4"/>
-      <c r="H110" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" ht="20.1" customHeight="1">
-      <c r="A111" t="s" s="3">
-        <v>231</v>
-      </c>
-      <c r="B111" t="s" s="3">
-        <v>232</v>
-      </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" ht="20.1" customHeight="1">
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" ht="16" customHeight="1">
       <c r="A112" t="s" s="3">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B112" t="s" s="3">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s" s="3">
+      <c r="E112" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G112" s="4"/>
-      <c r="H112" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" ht="20.1" customHeight="1">
+      <c r="H112" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="16" customHeight="1">
       <c r="A113" t="s" s="3">
+        <v>233</v>
+      </c>
+      <c r="B113" t="s" s="7">
+        <v>234</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="16" customHeight="1">
+      <c r="A114" t="s" s="3">
         <v>235</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B114" t="s" s="19">
         <v>236</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" ht="20.1" customHeight="1">
-      <c r="A114" t="s" s="3">
+      <c r="C114" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E114" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="16" customHeight="1">
+      <c r="A115" t="s" s="3">
         <v>237</v>
       </c>
-      <c r="B114" t="s" s="3">
+      <c r="B115" t="s" s="3">
         <v>238</v>
       </c>
-      <c r="C114" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E114" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G114" s="4"/>
-      <c r="H114" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" ht="20.1" customHeight="1">
-      <c r="A115" t="s" s="3">
+      <c r="C115" s="4"/>
+      <c r="D115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" ht="16" customHeight="1">
+      <c r="A116" t="s" s="3">
         <v>239</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B116" t="s" s="3">
         <v>240</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G115" s="4"/>
-      <c r="H115" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" ht="20.1" customHeight="1">
-      <c r="A116" t="s" s="3">
+      <c r="C116" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E116" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="16" customHeight="1">
+      <c r="A117" t="s" s="3">
         <v>241</v>
       </c>
-      <c r="B116" t="s" s="3">
+      <c r="B117" t="s" s="3">
         <v>242</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F116" s="4"/>
-      <c r="G116" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H116" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" ht="20.1" customHeight="1">
-      <c r="A117" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="B117" t="s" s="3">
-        <v>244</v>
-      </c>
       <c r="C117" s="4"/>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" ht="20.1" customHeight="1">
+      <c r="H117" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="16" customHeight="1">
       <c r="A118" t="s" s="3">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B118" t="s" s="3">
-        <v>246</v>
-      </c>
-      <c r="C118" t="s" s="3">
+        <v>244</v>
+      </c>
+      <c r="C118" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H118" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" ht="20.1" customHeight="1">
+      <c r="G118" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" ht="16" customHeight="1">
       <c r="A119" t="s" s="3">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s" s="3">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" ht="20.1" customHeight="1">
+      <c r="H119" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="16" customHeight="1">
       <c r="A120" t="s" s="3">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B120" t="s" s="3">
-        <v>250</v>
-      </c>
-      <c r="C120" t="s" s="3">
+        <v>248</v>
+      </c>
+      <c r="C120" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" ht="20.1" customHeight="1">
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" ht="16" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B121" t="s" s="3">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="H121" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" ht="20.1" customHeight="1">
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" ht="16" customHeight="1">
       <c r="A122" t="s" s="3">
+        <v>251</v>
+      </c>
+      <c r="B122" t="s" s="3">
+        <v>252</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="16" customHeight="1">
+      <c r="A123" t="s" s="3">
         <v>253</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B123" t="s" s="3">
         <v>254</v>
-      </c>
-      <c r="C122" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D122" s="4"/>
-      <c r="E122" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G122" s="4"/>
-      <c r="H122" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" ht="20.1" customHeight="1">
-      <c r="A123" t="s" s="3">
-        <v>255</v>
-      </c>
-      <c r="B123" t="s" s="3">
-        <v>256</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H123" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" ht="20.1" customHeight="1">
+      <c r="G123" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" ht="16" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B124" t="s" s="3">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" ht="20.1" customHeight="1">
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" ht="16" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B125" t="s" s="3">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H125" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" ht="20.1" customHeight="1">
+      <c r="G125" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="16" customHeight="1">
       <c r="A126" t="s" s="3">
+        <v>259</v>
+      </c>
+      <c r="B126" t="s" s="3">
+        <v>260</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="16" customHeight="1">
+      <c r="A127" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s" s="3">
         <v>261</v>
       </c>
-      <c r="B126" t="s" s="3">
+      <c r="C127" s="4"/>
+      <c r="D127" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E127" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G127" s="4"/>
+      <c r="H127" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="16" customHeight="1">
+      <c r="A128" t="s" s="3">
         <v>262</v>
       </c>
-      <c r="C126" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D126" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E126" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H126" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" ht="20.1" customHeight="1">
-      <c r="A127" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="B127" t="s" s="3">
+      <c r="B128" t="s" s="3">
         <v>263</v>
       </c>
-      <c r="C127" s="4"/>
-      <c r="D127" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E127" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F127" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G127" s="4"/>
-      <c r="H127" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" ht="20.1" customHeight="1">
-      <c r="A128" t="s" s="3">
-        <v>264</v>
-      </c>
-      <c r="B128" t="s" s="3">
-        <v>265</v>
-      </c>
-      <c r="C128" t="s" s="3">
+      <c r="C128" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" ht="20.1" customHeight="1">
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" ht="16" customHeight="1">
       <c r="A129" t="s" s="3">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s" s="3">
+        <v>265</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E129" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="16" customHeight="1">
+      <c r="A130" t="s" s="3">
         <v>266</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B130" t="s" s="3">
         <v>267</v>
-      </c>
-      <c r="C129" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E129" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H129" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" ht="20.1" customHeight="1">
-      <c r="A130" t="s" s="3">
-        <v>268</v>
-      </c>
-      <c r="B130" t="s" s="3">
-        <v>269</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F130" s="4"/>
-      <c r="G130" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H130" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" ht="20.1" customHeight="1">
+      <c r="G130" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="16" customHeight="1">
       <c r="A131" t="s" s="3">
+        <v>268</v>
+      </c>
+      <c r="B131" t="s" s="3">
+        <v>269</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E131" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" ht="16" customHeight="1">
+      <c r="A132" t="s" s="3">
         <v>270</v>
       </c>
-      <c r="B131" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>271</v>
-      </c>
-      <c r="C131" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E131" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F131" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H131" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" ht="20.1" customHeight="1">
-      <c r="A132" t="s" s="3">
-        <v>272</v>
-      </c>
-      <c r="B132" t="s" s="3">
-        <v>273</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G132" s="4"/>
-      <c r="H132" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" ht="20.1" customHeight="1">
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" ht="16" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B133" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C133" t="s" s="3">
+        <v>273</v>
+      </c>
+      <c r="C133" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" ht="20.1" customHeight="1">
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" ht="16" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B134" t="s" s="3">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" t="s" s="3">
+      <c r="E134" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" ht="20.1" customHeight="1">
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" ht="16" customHeight="1">
       <c r="A135" t="s" s="3">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B135" t="s" s="3">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F135" s="4"/>
-      <c r="G135" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H135" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" ht="20.1" customHeight="1">
+      <c r="G135" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" ht="16" customHeight="1">
       <c r="A136" t="s" s="3">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s" s="3">
+        <v>279</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="16" customHeight="1">
+      <c r="A137" t="s" s="3">
         <v>280</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>281</v>
-      </c>
-      <c r="C136" s="4"/>
-      <c r="D136" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E136" s="4"/>
-      <c r="F136" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G136" s="4"/>
-      <c r="H136" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" ht="20.1" customHeight="1">
-      <c r="A137" t="s" s="3">
-        <v>282</v>
-      </c>
-      <c r="B137" t="s" s="3">
-        <v>283</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F137" s="4"/>
-      <c r="G137" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H137" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" ht="20.1" customHeight="1">
+      <c r="G137" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="16" customHeight="1">
       <c r="A138" t="s" s="3">
+        <v>282</v>
+      </c>
+      <c r="B138" t="s" s="3">
+        <v>283</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E138" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" ht="16" customHeight="1">
+      <c r="A139" t="s" s="3">
         <v>284</v>
       </c>
-      <c r="B138" t="s" s="3">
+      <c r="B139" t="s" s="3">
         <v>285</v>
-      </c>
-      <c r="C138" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="E138" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H138" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" ht="20.1" customHeight="1">
-      <c r="A139" t="s" s="3">
-        <v>286</v>
-      </c>
-      <c r="B139" t="s" s="3">
-        <v>287</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G139" s="4"/>
-      <c r="H139" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" ht="20.1" customHeight="1">
+      <c r="H139" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="16" customHeight="1">
       <c r="A140" t="s" s="3">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B140" t="s" s="3">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F140" s="4"/>
-      <c r="G140" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H140" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" ht="20.1" customHeight="1">
+      <c r="G140" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="16" customHeight="1">
       <c r="A141" t="s" s="3">
+        <v>288</v>
+      </c>
+      <c r="B141" t="s" s="3">
+        <v>289</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" ht="16" customHeight="1">
+      <c r="A142" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="B141" t="s" s="3">
+      <c r="B142" t="s" s="3">
         <v>291</v>
       </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F141" s="4"/>
-      <c r="G141" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="H141" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" ht="20.1" customHeight="1">
-      <c r="A142" t="s" s="3">
+      <c r="C142" s="4"/>
+      <c r="D142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" ht="16" customHeight="1">
+      <c r="A143" t="s" s="3">
         <v>292</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B143" t="s" s="19">
         <v>293</v>
       </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" ht="20.1" customHeight="1">
-      <c r="A143" t="s" s="3">
+      <c r="C143" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" ht="16" customHeight="1">
+      <c r="A144" t="s" s="3">
         <v>294</v>
       </c>
-      <c r="B143" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>295</v>
       </c>
-      <c r="C143" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D143" s="4"/>
-      <c r="E143" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F143" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="G143" s="4"/>
-      <c r="H143" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" ht="20.1" customHeight="1">
-      <c r="A144" t="s" s="3">
+      <c r="C144" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E144" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" ht="16" customHeight="1">
+      <c r="A145" t="s" s="3">
         <v>296</v>
       </c>
-      <c r="B144" t="s" s="3">
+      <c r="B145" t="s" s="3">
         <v>297</v>
       </c>
-      <c r="C144" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" ht="20.1" customHeight="1">
-      <c r="A145" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="B145" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D145" s="4"/>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="2">
         <v>10</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" t="s" s="10">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="146" ht="20.1" customHeight="1">
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" ht="16" customHeight="1">
       <c r="A146" t="s" s="3">
-        <v>272</v>
-      </c>
-      <c r="B146" t="s" s="3">
-        <v>273</v>
-      </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+        <v>298</v>
+      </c>
+      <c r="B146" t="s" s="18">
+        <v>299</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="E146" s="4"/>
-      <c r="F146" t="s" s="8">
+      <c r="F146" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G146" s="4"/>
-      <c r="H146" t="s" s="5">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="147" ht="20.1" customHeight="1">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="12"/>
-    </row>
-    <row r="148" ht="20.1" customHeight="1">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="12"/>
-    </row>
-    <row r="149" ht="20.1" customHeight="1">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="12"/>
-    </row>
-    <row r="150" ht="20.1" customHeight="1">
-      <c r="A150" s="13"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="14"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" ht="16" customHeight="1">
+      <c r="A147" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="B147" t="s" s="7">
+        <v>301</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E147" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" ht="16" customHeight="1">
+      <c r="A148" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="B148" t="s" s="8">
+        <v>303</v>
+      </c>
+      <c r="C148" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E148" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
